--- a/metadata_files/06_metadata_phenology/01_WORKING_monthly_datatypes/Black-browed Albatross_Kerguelen.xlsx
+++ b/metadata_files/06_metadata_phenology/01_WORKING_monthly_datatypes/Black-browed Albatross_Kerguelen.xlsx
@@ -2871,13 +2871,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5017B622-A9EA-4564-BE7C-CC15E3932508}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5001A804-5ED3-4B05-BE26-AEA11036488E}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64144376-8323-400C-B147-876456EE31B6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13DE1D51-B532-4986-816E-42F70CAA9381}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{89C75974-E65D-4FCC-9066-3342A56CF404}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BDD07238-6AEC-4A6A-A81D-4489DCFD97D8}"/>
 </file>